--- a/supplementalData/Table S1.xlsx
+++ b/supplementalData/Table S1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/Dropbox/_Manuscripts/16 Species Paper/_ToSubmit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/projects/GitHub/Drosophila14GenomesProject/supplementalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029893C3-2BA5-7742-8663-A04187B6DA36}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1-SampleDetails" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="43">
   <si>
     <t>FlyBase</t>
   </si>
@@ -81,12 +82,6 @@
   </si>
   <si>
     <t>D. mauritiana</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/assembly/GCF_000224215.1/</t>
-  </si>
-  <si>
-    <t>D. kikkawai</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/assembly/GCF_000236325.1/</t>
@@ -164,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -556,14 +551,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,59 +577,59 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -664,11 +659,11 @@
         <v>2.31</v>
       </c>
       <c r="K4" s="2">
-        <f>G4*E4/1000</f>
+        <f t="shared" ref="K4:K23" si="0">G4*E4/1000</f>
         <v>2.1</v>
       </c>
       <c r="L4" s="2">
-        <f>H4*E4/1000</f>
+        <f t="shared" ref="L4:L23" si="1">H4*E4/1000</f>
         <v>29.935000000000002</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -683,7 +678,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -713,18 +708,18 @@
         <v>2.23</v>
       </c>
       <c r="K5" s="2">
-        <f>G5*E5/1000</f>
+        <f t="shared" si="0"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="L5" s="2">
-        <f>H5*E5/1000</f>
+        <f t="shared" si="1"/>
         <v>25.515000000000001</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O5" s="2">
         <v>2</v>
@@ -732,7 +727,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -762,18 +757,18 @@
         <v>2.34</v>
       </c>
       <c r="K6" s="2">
-        <f>G6*E6/1000</f>
+        <f t="shared" si="0"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="L6" s="2">
-        <f>H6*E6/1000</f>
+        <f t="shared" si="1"/>
         <v>77.995000000000005</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O6" s="2">
         <v>2</v>
@@ -809,11 +804,11 @@
         <v>4.51</v>
       </c>
       <c r="K7" s="2">
-        <f>G7*E7/1000</f>
+        <f t="shared" si="0"/>
         <v>3.528</v>
       </c>
       <c r="L7" s="2">
-        <f>H7*E7/1000</f>
+        <f t="shared" si="1"/>
         <v>7.0952000000000011</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -823,7 +818,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -853,11 +848,11 @@
         <v>2.36</v>
       </c>
       <c r="K8" s="2">
-        <f>G8*E8/1000</f>
+        <f t="shared" si="0"/>
         <v>1.776</v>
       </c>
       <c r="L8" s="2">
-        <f>H8*E8/1000</f>
+        <f t="shared" si="1"/>
         <v>35.524800000000006</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -900,11 +895,11 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="K9" s="2">
-        <f>G9*E9/1000</f>
+        <f t="shared" si="0"/>
         <v>6.0759999999999996</v>
       </c>
       <c r="L9" s="2">
-        <f>H9*E9/1000</f>
+        <f t="shared" si="1"/>
         <v>27.8124</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -914,7 +909,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -944,18 +939,18 @@
         <v>3.05</v>
       </c>
       <c r="K10" s="2">
-        <f>G10*E10/1000</f>
+        <f t="shared" si="0"/>
         <v>1.845</v>
       </c>
       <c r="L10" s="2">
-        <f>H10*E10/1000</f>
+        <f t="shared" si="1"/>
         <v>22.652999999999999</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O10" s="2">
         <v>2</v>
@@ -991,11 +986,11 @@
         <v>1.52</v>
       </c>
       <c r="K11" s="2">
-        <f>G11*E11/1000</f>
+        <f t="shared" si="0"/>
         <v>8.0359999999999996</v>
       </c>
       <c r="L11" s="2">
-        <f>H11*E11/1000</f>
+        <f t="shared" si="1"/>
         <v>33.888400000000004</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -1004,8 +999,8 @@
       <c r="N11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
+      <c r="A12" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -1014,47 +1009,47 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1">
-        <v>345.8</v>
+        <v>446.9</v>
       </c>
       <c r="I12" s="1">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="J12" s="1">
-        <v>1.52</v>
+        <v>2.33</v>
       </c>
       <c r="K12" s="2">
-        <f>G12*E12/1000</f>
-        <v>7.2519999999999998</v>
+        <f t="shared" si="0"/>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L12" s="2">
-        <f>H12*E12/1000</f>
-        <v>33.888400000000004</v>
+        <f t="shared" si="1"/>
+        <v>22.344999999999999</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="O12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -1066,137 +1061,137 @@
         <v>7</v>
       </c>
       <c r="E13" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1">
-        <v>446.9</v>
+        <v>500.5</v>
       </c>
       <c r="I13" s="1">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="J13" s="1">
-        <v>2.33</v>
+        <v>1.9</v>
       </c>
       <c r="K13" s="2">
-        <f>G13*E13/1000</f>
-        <v>2.5499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1.3049999999999999</v>
       </c>
       <c r="L13" s="2">
-        <f>H13*E13/1000</f>
-        <v>22.344999999999999</v>
+        <f t="shared" si="1"/>
+        <v>22.522500000000001</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1</v>
+      <c r="N13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.04</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>98</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>123</v>
+      </c>
+      <c r="H14" s="1">
+        <v>226.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>12.054</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>22.196999999999999</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="1">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="3">
-        <v>29</v>
-      </c>
-      <c r="H14" s="1">
-        <v>500.5</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1.84</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="G15" s="3">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1">
+        <v>573.29999999999995</v>
+      </c>
+      <c r="I15" s="1">
         <v>1.9</v>
       </c>
-      <c r="K14" s="2">
-        <f>G14*E14/1000</f>
-        <v>1.3049999999999999</v>
-      </c>
-      <c r="L14" s="2">
-        <f>H14*E14/1000</f>
-        <v>22.522500000000001</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="J15" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.55</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>28.664999999999996</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O14" s="1">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>98</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3">
-        <v>123</v>
-      </c>
-      <c r="H15" s="1">
-        <v>226.5</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2.86</v>
-      </c>
-      <c r="K15" s="2">
-        <f>G15*E15/1000</f>
-        <v>12.054</v>
-      </c>
-      <c r="L15" s="2">
-        <f>H15*E15/1000</f>
-        <v>22.196999999999999</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15"/>
+      <c r="O15" s="1">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1212,24 +1207,24 @@
         <v>6</v>
       </c>
       <c r="G16" s="3">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1">
-        <v>573.29999999999995</v>
+        <v>781.5</v>
       </c>
       <c r="I16" s="1">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J16" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="K16" s="2">
-        <f>G16*E16/1000</f>
-        <v>1.55</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="L16" s="2">
-        <f>H16*E16/1000</f>
-        <v>28.664999999999996</v>
+        <f t="shared" si="1"/>
+        <v>39.075000000000003</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>1</v>
@@ -1238,204 +1233,202 @@
         <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>1.3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
+      <c r="A17" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1">
-        <v>781.5</v>
+        <v>139.1</v>
       </c>
       <c r="I17" s="1">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="J17" s="1">
-        <v>2.25</v>
+        <v>3.76</v>
       </c>
       <c r="K17" s="2">
-        <f>G17*E17/1000</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3.234</v>
       </c>
       <c r="L17" s="2">
-        <f>H17*E17/1000</f>
-        <v>39.075000000000003</v>
+        <f t="shared" si="1"/>
+        <v>13.6318</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O17" s="1">
-        <v>3.04</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1">
-        <v>139.1</v>
+        <v>384.1</v>
       </c>
       <c r="I18" s="1">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="J18" s="1">
-        <v>3.76</v>
+        <v>2.39</v>
       </c>
       <c r="K18" s="2">
-        <f>G18*E18/1000</f>
-        <v>3.234</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="L18" s="2">
-        <f>H18*E18/1000</f>
-        <v>13.6318</v>
+        <f t="shared" si="1"/>
+        <v>19.204999999999998</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O18" s="1">
-        <v>1.3</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H19" s="1">
-        <v>384.1</v>
+        <v>86.9</v>
       </c>
       <c r="I19" s="1">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="J19" s="1">
-        <v>2.39</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K19" s="2">
-        <f>G19*E19/1000</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>5.194</v>
       </c>
       <c r="L19" s="2">
-        <f>H19*E19/1000</f>
-        <v>19.204999999999998</v>
+        <f t="shared" si="1"/>
+        <v>8.5162000000000013</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2.02</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="N19"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>98</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G20" s="3">
-        <v>53</v>
-      </c>
-      <c r="H20" s="1">
-        <v>86.9</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="J20" s="1">
-        <v>4.4000000000000004</v>
+        <v>56</v>
+      </c>
+      <c r="H20" s="6">
+        <v>502.4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2.57</v>
       </c>
       <c r="K20" s="2">
-        <f>G20*E20/1000</f>
-        <v>5.194</v>
+        <f t="shared" si="0"/>
+        <v>5.4880000000000004</v>
       </c>
       <c r="L20" s="2">
-        <f>H20*E20/1000</f>
-        <v>8.5162000000000013</v>
+        <f t="shared" si="1"/>
+        <v>49.235199999999999</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.06</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>4</v>
@@ -1462,103 +1455,105 @@
         <v>2.57</v>
       </c>
       <c r="K21" s="2">
-        <f>G21*E21/1000</f>
+        <f t="shared" si="0"/>
         <v>5.4880000000000004</v>
       </c>
       <c r="L21" s="2">
-        <f>H21*E21/1000</f>
+        <f t="shared" si="1"/>
         <v>49.235199999999999</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>37</v>
+      </c>
+      <c r="H22" s="3">
+        <v>942.8</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.85</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="1"/>
+        <v>47.14</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O21" s="1">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="O22" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="1">
         <v>98</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3">
-        <v>56</v>
-      </c>
-      <c r="H22" s="6">
-        <v>502.4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2.12</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2.57</v>
-      </c>
-      <c r="K22" s="2">
-        <f>G22*E22/1000</f>
-        <v>5.4880000000000004</v>
-      </c>
-      <c r="L22" s="2">
-        <f>H22*E22/1000</f>
-        <v>49.235199999999999</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1">
-        <v>50</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G23" s="3">
-        <v>37</v>
-      </c>
-      <c r="H23" s="3">
-        <v>942.8</v>
+        <v>71</v>
+      </c>
+      <c r="H23" s="1">
+        <v>346.4</v>
       </c>
       <c r="I23" s="1">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="J23" s="1">
-        <v>2.2599999999999998</v>
+        <v>2.15</v>
       </c>
       <c r="K23" s="2">
-        <f>G23*E23/1000</f>
-        <v>1.85</v>
+        <f t="shared" si="0"/>
+        <v>6.9580000000000002</v>
       </c>
       <c r="L23" s="2">
-        <f>H23*E23/1000</f>
-        <v>47.14</v>
+        <f t="shared" si="1"/>
+        <v>33.947199999999995</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>1</v>
@@ -1567,55 +1562,6 @@
         <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>98</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3">
-        <v>71</v>
-      </c>
-      <c r="H24" s="1">
-        <v>346.4</v>
-      </c>
-      <c r="I24" s="1">
-        <v>2.08</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="K24" s="2">
-        <f>G24*E24/1000</f>
-        <v>6.9580000000000002</v>
-      </c>
-      <c r="L24" s="2">
-        <f>H24*E24/1000</f>
-        <v>33.947199999999995</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
         <v>1.05</v>
       </c>
     </row>
